--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb2-Ephb6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb2-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H2">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I2">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J2">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.239262</v>
+        <v>0.168144</v>
       </c>
       <c r="N2">
-        <v>0.717786</v>
+        <v>0.504432</v>
       </c>
       <c r="O2">
-        <v>0.08715472402266847</v>
+        <v>0.05446245276675245</v>
       </c>
       <c r="P2">
-        <v>0.08715472402266845</v>
+        <v>0.05446245276675245</v>
       </c>
       <c r="Q2">
-        <v>12.589047115642</v>
+        <v>7.694634536672</v>
       </c>
       <c r="R2">
-        <v>113.301424040778</v>
+        <v>69.251710830048</v>
       </c>
       <c r="S2">
-        <v>0.06686092512586572</v>
+        <v>0.03683807193935298</v>
       </c>
       <c r="T2">
-        <v>0.06686092512586571</v>
+        <v>0.03683807193935298</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H3">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I3">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J3">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.839785</v>
       </c>
       <c r="O3">
-        <v>0.4662328353874024</v>
+        <v>0.4145734394268892</v>
       </c>
       <c r="P3">
-        <v>0.4662328353874023</v>
+        <v>0.4145734394268892</v>
       </c>
       <c r="Q3">
-        <v>67.34491098870056</v>
+        <v>58.57229968438778</v>
       </c>
       <c r="R3">
-        <v>606.1041988983051</v>
+        <v>527.1506971594901</v>
       </c>
       <c r="S3">
-        <v>0.3576714750418959</v>
+        <v>0.2804149539712955</v>
       </c>
       <c r="T3">
-        <v>0.3576714750418958</v>
+        <v>0.2804149539712955</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H4">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I4">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J4">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.217387</v>
+        <v>1.639265666666667</v>
       </c>
       <c r="N4">
-        <v>3.652161</v>
+        <v>4.917797</v>
       </c>
       <c r="O4">
-        <v>0.4434512292540573</v>
+        <v>0.5309641078063584</v>
       </c>
       <c r="P4">
-        <v>0.4434512292540573</v>
+        <v>0.5309641078063583</v>
       </c>
       <c r="Q4">
-        <v>64.05422633335033</v>
+        <v>75.01635629885089</v>
       </c>
       <c r="R4">
-        <v>576.488037000153</v>
+        <v>675.1472066896581</v>
       </c>
       <c r="S4">
-        <v>0.3401945192140928</v>
+        <v>0.359140894449865</v>
       </c>
       <c r="T4">
-        <v>0.3401945192140928</v>
+        <v>0.359140894449865</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>52.61615766666667</v>
+        <v>9.395935333333332</v>
       </c>
       <c r="H5">
-        <v>157.848473</v>
+        <v>28.187806</v>
       </c>
       <c r="I5">
-        <v>0.7671520491359202</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J5">
-        <v>0.7671520491359202</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.008678333333333335</v>
+        <v>0.168144</v>
       </c>
       <c r="N5">
-        <v>0.026035</v>
+        <v>0.504432</v>
       </c>
       <c r="O5">
-        <v>0.003161211335871936</v>
+        <v>0.05446245276675245</v>
       </c>
       <c r="P5">
-        <v>0.003161211335871936</v>
+        <v>0.05446245276675245</v>
       </c>
       <c r="Q5">
-        <v>0.4566205549505557</v>
+        <v>1.579870150688</v>
       </c>
       <c r="R5">
-        <v>4.109584994555001</v>
+        <v>14.218831356192</v>
       </c>
       <c r="S5">
-        <v>0.002425129754065856</v>
+        <v>0.007563630213820751</v>
       </c>
       <c r="T5">
-        <v>0.002425129754065855</v>
+        <v>0.007563630213820752</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>28.187806</v>
       </c>
       <c r="I6">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J6">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.239262</v>
+        <v>1.279928333333333</v>
       </c>
       <c r="N6">
-        <v>0.717786</v>
+        <v>3.839785</v>
       </c>
       <c r="O6">
-        <v>0.08715472402266847</v>
+        <v>0.4145734394268892</v>
       </c>
       <c r="P6">
-        <v>0.08715472402266845</v>
+        <v>0.4145734394268892</v>
       </c>
       <c r="Q6">
-        <v>2.248090279724</v>
+        <v>12.02612385130111</v>
       </c>
       <c r="R6">
-        <v>20.232812517516</v>
+        <v>108.23511466171</v>
       </c>
       <c r="S6">
-        <v>0.01193969603005553</v>
+        <v>0.0575750821529477</v>
       </c>
       <c r="T6">
-        <v>0.01193969603005553</v>
+        <v>0.0575750821529477</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>28.187806</v>
       </c>
       <c r="I7">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J7">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.279928333333333</v>
+        <v>1.639265666666667</v>
       </c>
       <c r="N7">
-        <v>3.839785</v>
+        <v>4.917797</v>
       </c>
       <c r="O7">
-        <v>0.4662328353874024</v>
+        <v>0.5309641078063584</v>
       </c>
       <c r="P7">
-        <v>0.4662328353874023</v>
+        <v>0.5309641078063583</v>
       </c>
       <c r="Q7">
-        <v>12.02612385130111</v>
+        <v>15.40243419815355</v>
       </c>
       <c r="R7">
-        <v>108.23511466171</v>
+        <v>138.621907783382</v>
       </c>
       <c r="S7">
-        <v>0.06387121749486169</v>
+        <v>0.07373917192929286</v>
       </c>
       <c r="T7">
-        <v>0.06387121749486167</v>
+        <v>0.07373917192929286</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.395935333333332</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H8">
-        <v>28.187806</v>
+        <v>36.892526</v>
       </c>
       <c r="I8">
-        <v>0.1369942497546098</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J8">
-        <v>0.1369942497546098</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.217387</v>
+        <v>0.168144</v>
       </c>
       <c r="N8">
-        <v>3.652161</v>
+        <v>0.504432</v>
       </c>
       <c r="O8">
-        <v>0.4434512292540573</v>
+        <v>0.05446245276675245</v>
       </c>
       <c r="P8">
-        <v>0.4434512292540573</v>
+        <v>0.05446245276675245</v>
       </c>
       <c r="Q8">
-        <v>11.43848952764066</v>
+        <v>2.067752297248</v>
       </c>
       <c r="R8">
-        <v>102.946405748766</v>
+        <v>18.609770675232</v>
       </c>
       <c r="S8">
-        <v>0.06075026845441906</v>
+        <v>0.00989936656715204</v>
       </c>
       <c r="T8">
-        <v>0.06075026845441906</v>
+        <v>0.00989936656715204</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.395935333333332</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H9">
-        <v>28.187806</v>
+        <v>36.892526</v>
       </c>
       <c r="I9">
-        <v>0.1369942497546098</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J9">
-        <v>0.1369942497546098</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.008678333333333335</v>
+        <v>1.279928333333333</v>
       </c>
       <c r="N9">
-        <v>0.026035</v>
+        <v>3.839785</v>
       </c>
       <c r="O9">
-        <v>0.003161211335871936</v>
+        <v>0.4145734394268892</v>
       </c>
       <c r="P9">
-        <v>0.003161211335871936</v>
+        <v>0.4145734394268892</v>
       </c>
       <c r="Q9">
-        <v>0.08154105880111112</v>
+        <v>15.73992977187889</v>
       </c>
       <c r="R9">
-        <v>0.73386952921</v>
+        <v>141.65936794691</v>
       </c>
       <c r="S9">
-        <v>0.0004330677752735437</v>
+        <v>0.07535493238742169</v>
       </c>
       <c r="T9">
-        <v>0.0004330677752735437</v>
+        <v>0.07535493238742168</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.492645</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H10">
-        <v>19.477935</v>
+        <v>36.892526</v>
       </c>
       <c r="I10">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J10">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.239262</v>
+        <v>1.639265666666667</v>
       </c>
       <c r="N10">
-        <v>0.717786</v>
+        <v>4.917797</v>
       </c>
       <c r="O10">
-        <v>0.08715472402266847</v>
+        <v>0.5309641078063584</v>
       </c>
       <c r="P10">
-        <v>0.08715472402266845</v>
+        <v>0.5309641078063583</v>
       </c>
       <c r="Q10">
-        <v>1.55344322799</v>
+        <v>20.15888374280244</v>
       </c>
       <c r="R10">
-        <v>13.98098905191</v>
+        <v>181.429953685222</v>
       </c>
       <c r="S10">
-        <v>0.008250398175479843</v>
+        <v>0.09651067974640905</v>
       </c>
       <c r="T10">
-        <v>0.008250398175479842</v>
+        <v>0.09651067974640903</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.492645</v>
+        <v>0.2004796666666666</v>
       </c>
       <c r="H11">
-        <v>19.477935</v>
+        <v>0.6014389999999999</v>
       </c>
       <c r="I11">
-        <v>0.09466380931151776</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="J11">
-        <v>0.09466380931151776</v>
+        <v>0.002963216642442439</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.279928333333333</v>
+        <v>0.168144</v>
       </c>
       <c r="N11">
-        <v>3.839785</v>
+        <v>0.504432</v>
       </c>
       <c r="O11">
-        <v>0.4662328353874024</v>
+        <v>0.05446245276675245</v>
       </c>
       <c r="P11">
-        <v>0.4662328353874023</v>
+        <v>0.05446245276675245</v>
       </c>
       <c r="Q11">
-        <v>8.310120293775</v>
+        <v>0.03370945307199999</v>
       </c>
       <c r="R11">
-        <v>74.791082643975</v>
+        <v>0.303385077648</v>
       </c>
       <c r="S11">
-        <v>0.04413537622388131</v>
+        <v>0.0001613840464266761</v>
       </c>
       <c r="T11">
-        <v>0.04413537622388131</v>
+        <v>0.0001613840464266761</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.492645</v>
+        <v>0.2004796666666666</v>
       </c>
       <c r="H12">
-        <v>19.477935</v>
+        <v>0.6014389999999999</v>
       </c>
       <c r="I12">
-        <v>0.09466380931151776</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="J12">
-        <v>0.09466380931151776</v>
+        <v>0.002963216642442439</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.217387</v>
+        <v>1.279928333333333</v>
       </c>
       <c r="N12">
-        <v>3.652161</v>
+        <v>3.839785</v>
       </c>
       <c r="O12">
-        <v>0.4434512292540573</v>
+        <v>0.4145734394268892</v>
       </c>
       <c r="P12">
-        <v>0.4434512292540573</v>
+        <v>0.4145734394268892</v>
       </c>
       <c r="Q12">
-        <v>7.904061618614999</v>
+        <v>0.2565996056238888</v>
       </c>
       <c r="R12">
-        <v>71.136554567535</v>
+        <v>2.309396450615</v>
       </c>
       <c r="S12">
-        <v>0.04197878260506423</v>
+        <v>0.00122847091522436</v>
       </c>
       <c r="T12">
-        <v>0.04197878260506423</v>
+        <v>0.00122847091522436</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,294 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.492645</v>
+        <v>0.2004796666666666</v>
       </c>
       <c r="H13">
-        <v>19.477935</v>
+        <v>0.6014389999999999</v>
       </c>
       <c r="I13">
-        <v>0.09466380931151776</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="J13">
-        <v>0.09466380931151776</v>
+        <v>0.002963216642442439</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.008678333333333335</v>
+        <v>1.639265666666667</v>
       </c>
       <c r="N13">
-        <v>0.026035</v>
+        <v>4.917797</v>
       </c>
       <c r="O13">
-        <v>0.003161211335871936</v>
+        <v>0.5309641078063584</v>
       </c>
       <c r="P13">
-        <v>0.003161211335871936</v>
+        <v>0.5309641078063583</v>
       </c>
       <c r="Q13">
-        <v>0.05634533752500001</v>
+        <v>0.3286394344314444</v>
       </c>
       <c r="R13">
-        <v>0.5071080377250001</v>
+        <v>2.957754909883</v>
       </c>
       <c r="S13">
-        <v>0.0002992523070923893</v>
+        <v>0.001573361680791402</v>
       </c>
       <c r="T13">
-        <v>0.0002992523070923892</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.08161033333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.244831</v>
-      </c>
-      <c r="I14">
-        <v>0.001189891797952309</v>
-      </c>
-      <c r="J14">
-        <v>0.001189891797952308</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.239262</v>
-      </c>
-      <c r="N14">
-        <v>0.717786</v>
-      </c>
-      <c r="O14">
-        <v>0.08715472402266847</v>
-      </c>
-      <c r="P14">
-        <v>0.08715472402266845</v>
-      </c>
-      <c r="Q14">
-        <v>0.019526251574</v>
-      </c>
-      <c r="R14">
-        <v>0.175736264166</v>
-      </c>
-      <c r="S14">
-        <v>0.0001037046912673702</v>
-      </c>
-      <c r="T14">
-        <v>0.0001037046912673702</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.08161033333333333</v>
-      </c>
-      <c r="H15">
-        <v>0.244831</v>
-      </c>
-      <c r="I15">
-        <v>0.001189891797952309</v>
-      </c>
-      <c r="J15">
-        <v>0.001189891797952308</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.279928333333333</v>
-      </c>
-      <c r="N15">
-        <v>3.839785</v>
-      </c>
-      <c r="O15">
-        <v>0.4662328353874024</v>
-      </c>
-      <c r="P15">
-        <v>0.4662328353874023</v>
-      </c>
-      <c r="Q15">
-        <v>0.1044553779261111</v>
-      </c>
-      <c r="R15">
-        <v>0.9400984013349999</v>
-      </c>
-      <c r="S15">
-        <v>0.000554766626763519</v>
-      </c>
-      <c r="T15">
-        <v>0.0005547666267635188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.08161033333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.244831</v>
-      </c>
-      <c r="I16">
-        <v>0.001189891797952309</v>
-      </c>
-      <c r="J16">
-        <v>0.001189891797952308</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.217387</v>
-      </c>
-      <c r="N16">
-        <v>3.652161</v>
-      </c>
-      <c r="O16">
-        <v>0.4434512292540573</v>
-      </c>
-      <c r="P16">
-        <v>0.4434512292540573</v>
-      </c>
-      <c r="Q16">
-        <v>0.09935135886566664</v>
-      </c>
-      <c r="R16">
-        <v>0.8941622297909998</v>
-      </c>
-      <c r="S16">
-        <v>0.0005276589804812717</v>
-      </c>
-      <c r="T16">
-        <v>0.0005276589804812716</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.08161033333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.244831</v>
-      </c>
-      <c r="I17">
-        <v>0.001189891797952309</v>
-      </c>
-      <c r="J17">
-        <v>0.001189891797952308</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.008678333333333335</v>
-      </c>
-      <c r="N17">
-        <v>0.026035</v>
-      </c>
-      <c r="O17">
-        <v>0.003161211335871936</v>
-      </c>
-      <c r="P17">
-        <v>0.003161211335871936</v>
-      </c>
-      <c r="Q17">
-        <v>0.0007082416761111112</v>
-      </c>
-      <c r="R17">
-        <v>0.006374175084999999</v>
-      </c>
-      <c r="S17">
-        <v>3.761499440147878E-06</v>
-      </c>
-      <c r="T17">
-        <v>3.761499440147876E-06</v>
+        <v>0.001573361680791402</v>
       </c>
     </row>
   </sheetData>
